--- a/GCB_parser/output/test.xlsx
+++ b/GCB_parser/output/test.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\house\git\gcbParser\GCB_parser\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1911010\git\gcbParser\GCB_parser\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="5865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13596" windowHeight="5868"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="OLE_LINK1" localSheetId="0">工作表1!$D$10</definedName>
     <definedName name="output" localSheetId="0">工作表1!$A$2:$D$48</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
   <si>
     <t>GCB_Fortinet_Fortigate_01</t>
   </si>
@@ -224,13 +225,39 @@
   <si>
     <t>set description "FTTB 10m/10m"</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set min-number 1</t>
+  </si>
+  <si>
+    <t>set min-non-alphanumeric 1</t>
+  </si>
+  <si>
+    <t>set min-upper-case-letter 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set minimum-length 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set change-4-characters enable</t>
+  </si>
+  <si>
+    <t>set expire-status enable</t>
+  </si>
+  <si>
+    <t>set expire 90</t>
+  </si>
+  <si>
+    <t>set expire-day 14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -245,6 +272,12 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -269,12 +302,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,27 +596,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.25" customWidth="1"/>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="30.875" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -598,7 +635,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -616,7 +653,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -634,7 +671,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -646,7 +683,7 @@
         <v>未設定</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -658,7 +695,7 @@
         <v>未設定</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -670,7 +707,7 @@
         <v>未設定</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -678,11 +715,11 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f t="shared" ref="E5:E9" si="0">IF(LEN(D8),IF(D8="set broadcast-forward disable","是","否"),"未設定")</f>
-        <v>未設定</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E8:E9" si="0">IF(LEN(D8),IF(D8="set broadcast-forward disable","是","否"),"未設定")</f>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -690,83 +727,145 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>未設定</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <f>IF(LEN(D9),IF(D9="set apply-to admin-password","是","否"),"未設定")</f>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+      <c r="E10" s="1" t="str">
+        <f>IF(LEN(D10),IF(ISERROR(SEARCH("set min-lower-case-letter ",D10)),"否",IF(INT((MID(D10,LEN("set min-lower-case-letter ")+1,LEN(D10)-LEN("set min-lower-case-letter "))))&gt;0,"是","否")),"未設定")</f>
+        <v>未設定</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f>IF(LEN(D11),IF(ISERROR(SEARCH("set min-upper-case-letter ",D11)),"否",IF(INT((MID(D11,LEN("set min-upper-case-letter ")+1,LEN(D11)-LEN("set min-upper-case-letter "))))&gt;=1,"是","否")),"未設定")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f>IF(LEN(D12),IF(ISERROR(SEARCH("set min-non-alphanumeric ",D12)),"否",IF(INT((MID(D12,LEN("set min-non-alphanumeric ")+1,LEN(D12)-LEN("set min-non-alphanumeric "))))&gt;=1,"是","否")),"未設定")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f>IF(LEN(D13),IF(ISERROR(SEARCH("set min-number ",D13)),"否",IF(INT((MID(D13,LEN("set min-number ")+1,LEN(D13)-LEN("set min-number "))))&gt;=1,"是","否")),"未設定")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f>IF(LEN(D14),IF(ISERROR(SEARCH("set minimum-length ",D14)),"否",IF(INT((MID(D14,LEN("set minimum-length ")+1,LEN(D14)-LEN("set minimum-length "))))&gt;=12,"是","否")),"未設定")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f>IF(LEN(D15),IF(D15="set change-4-characters enable","是","否"),"未設定")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f>IF(LEN(D16),IF(D16="set expire-status enable","是","否"),"未設定")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f>IF(LEN(D17),IF(ISERROR(SEARCH("set expire ",D17)),"否",IF(INT((MID(D17,LEN("set expire ")+1,LEN(D17)-LEN("set expire "))))&gt;=90,"是","否")),"未設定")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f>IF(LEN(D18),IF(ISERROR(SEARCH("set expire-day ",D18)),"否",IF(INT((MID(D18,LEN("set expire-day ")+1,LEN(D18)-LEN("set expire-day "))))&gt;=14,"是","否")),"未設定")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -776,80 +875,120 @@
       <c r="C19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="str">
+        <f t="shared" ref="E10:F48" si="1">IF(LEN(D19),IF(D19="set apply-to admin-password","是","否"),"未設定")</f>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>33</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -859,8 +998,12 @@
       <c r="C29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -870,16 +1013,24 @@
       <c r="C30" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -889,133 +1040,201 @@
       <c r="C32" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>46</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>48</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>49</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>50</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>51</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>52</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>53</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>54</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>55</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>56</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>57</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>未設定</v>
       </c>
     </row>
   </sheetData>
